--- a/sikoto/B票のアシスタント.xlsx
+++ b/sikoto/B票のアシスタント.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TestUser\Desktop\Excel_Lib\sikoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7CA27-3B4A-4947-A4EC-CF67507E8797}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF0D07C-3733-422A-B412-D5A74BC35774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ブランチ間の差異" sheetId="7" r:id="rId1"/>
-    <sheet name="画面名" sheetId="4" r:id="rId2"/>
-    <sheet name="関数ページ" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
+    <sheet name="ブランチ間の差異" sheetId="7" r:id="rId2"/>
+    <sheet name="画面名" sheetId="4" r:id="rId3"/>
+    <sheet name="関数ページ" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>\</t>
     <phoneticPr fontId="4"/>
@@ -82,24 +83,6 @@
   <si>
     <t>位置</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Z:\Workspaces\JavaWeb_Part3\ssh\src\bean-action.xml</t>
-  </si>
-  <si>
-    <t>Z:\Workspaces\JavaWeb_Part3\ssh\src\bean-base.xml</t>
-  </si>
-  <si>
-    <t>Z:\Workspaces\JavaWeb_Part3\ssh\src\bean-service.xml</t>
-  </si>
-  <si>
-    <t>Z:\Workspaces\JavaWeb_Part3\ssh\src\cn\itcast\action\EmployeeAction.java</t>
-  </si>
-  <si>
-    <t>Z:\Workspaces\JavaWeb_Part3\ssh\src\cn\itcast\dao\test.java</t>
-  </si>
-  <si>
-    <t>Z:\Workspaces\JavaWeb_Part3\ssh\WebRoot\WEB-INF\web.xml</t>
   </si>
   <si>
     <t>尋找第N個字段</t>
@@ -255,6 +238,21 @@
   <si>
     <t>10.216.243.120:8080/gitbucket/git/UNION/workspro_union</t>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9520\common\WorkIndex.java</t>
+  </si>
+  <si>
+    <t>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9520\services\EditExcelWork.java</t>
+  </si>
+  <si>
+    <t>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9530\common\WorkIndex.java</t>
+  </si>
+  <si>
+    <t>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9530\services\EditExcelWork1.java</t>
+  </si>
+  <si>
+    <t>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9530\services\EditExcelWork2.java</t>
   </si>
 </sst>
 </file>
@@ -585,15 +583,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -601,14 +590,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,6 +640,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288833</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D725146-8115-45CF-AC86-F9F10BB926FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="238126"/>
+          <a:ext cx="8518432" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,10 +959,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D353F81-11F6-44C0-8673-E9A24798C11D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED44FE4-821D-4DB0-9A7D-AED339EC6A12}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:Q10"/>
     </sheetView>
   </sheetViews>
@@ -923,193 +990,193 @@
   <sheetData>
     <row r="1" spans="2:19"/>
     <row r="2" spans="2:19">
-      <c r="B2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="B2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="B5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="30" t="str">
+      <c r="B9" s="31" t="str">
         <f>IFERROR(D17, "比較することができない")</f>
         <v>10.216.243.120:8080/gitbucket/git/UNION/workspro_union/compare/develop...fix/BJS0299</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="21"/>
@@ -1130,141 +1197,141 @@
       <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="2:19" hidden="1">
-      <c r="B13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="str">
+      <c r="B13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="26" t="str">
         <f>IFERROR(LEFT(B6,FIND("/commit",B6)),"")</f>
         <v/>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" spans="2:19" hidden="1">
-      <c r="B14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25" t="str">
+      <c r="B14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="26" t="str">
         <f>IFERROR(RIGHT(B3,LEN(B3)-FIND("/", B3, FIND("commit",B3))),B3)</f>
         <v>fix/BJS0299</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="2:19" hidden="1">
-      <c r="B15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25" t="str">
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="26" t="str">
         <f>IFERROR(RIGHT(B6,LEN(B6)-FIND("/", B6, FIND("commit",B6))),B6)</f>
         <v>develop</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" spans="2:19" hidden="1">
-      <c r="B16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25" t="str">
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="26" t="str">
         <f>_xlfn.CONCAT(D12, "/compare/", D15, "...",D14)</f>
         <v>10.216.243.120:8080/gitbucket/git/UNION/workspro_union/compare/develop...fix/BJS0299</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" spans="2:17" hidden="1">
-      <c r="B17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25" t="str" cm="1">
+      <c r="B17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="26" t="str" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(D13=D12,D16,D13="",D16)</f>
         <v>10.216.243.120:8080/gitbucket/git/UNION/workspro_union/compare/develop...fix/BJS0299</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="19" spans="2:17"/>
     <row r="21" spans="2:17" hidden="1">
@@ -1272,6 +1339,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B3:Q4"/>
+    <mergeCell ref="B6:Q7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B9:Q10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D12:Q12"/>
@@ -1283,13 +1357,6 @@
     <mergeCell ref="D13:Q13"/>
     <mergeCell ref="D14:Q14"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B3:Q4"/>
-    <mergeCell ref="B6:Q7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B9:Q10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,12 +1364,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA6FED-46E5-4F4D-BC4B-D3B2A00581EB}">
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F12"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1"/>
@@ -1322,15 +1389,15 @@
     <row r="2" spans="2:6"/>
     <row r="3" spans="2:6">
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>0</v>
@@ -1341,17 +1408,17 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1361,14 +1428,14 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="str">
         <f>IFERROR(関数ページ!I3, "")</f>
-        <v/>
+        <v>s_R_9520</v>
       </c>
       <c r="E7" s="9" t="str">
         <f>IFERROR(関数ページ!J3,"")</f>
-        <v>bean-action.xml</v>
+        <v>WorkIndex.java</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1378,14 +1445,14 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="str">
         <f>IFERROR(関数ページ!I4, "")</f>
-        <v/>
+        <v>s_R_9520</v>
       </c>
       <c r="E8" s="9" t="str">
         <f>IFERROR(関数ページ!J4,"")</f>
-        <v>bean-base.xml</v>
+        <v>EditExcelWork.java</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1395,14 +1462,14 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="str">
         <f>IFERROR(関数ページ!I5, "")</f>
-        <v/>
+        <v>s_R_9530</v>
       </c>
       <c r="E9" s="9" t="str">
         <f>IFERROR(関数ページ!J5,"")</f>
-        <v>bean-service.xml</v>
+        <v>WorkIndex.java</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1412,14 +1479,14 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="str">
         <f>IFERROR(関数ページ!I6, "")</f>
-        <v>cn</v>
+        <v>s_R_9530</v>
       </c>
       <c r="E10" s="9" t="str">
         <f>IFERROR(関数ページ!J6,"")</f>
-        <v>EmployeeAction.java</v>
+        <v>EditExcelWork1.java</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1429,14 +1496,14 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="str">
         <f>IFERROR(関数ページ!I7, "")</f>
-        <v>cn</v>
+        <v>s_R_9530</v>
       </c>
       <c r="E11" s="9" t="str">
         <f>IFERROR(関数ページ!J7,"")</f>
-        <v>test.java</v>
+        <v>EditExcelWork2.java</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1446,15 +1513,13 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="str">
         <f>IFERROR(関数ページ!I8, "")</f>
-        <v>WEB-INF</v>
+        <v/>
       </c>
       <c r="E12" s="9" t="str">
         <f>IFERROR(関数ページ!J8,"")</f>
-        <v>web.xml</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="8">
@@ -2873,7 +2938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59873EDE-CCB8-402D-8F08-2A95EE7A0F9B}">
   <dimension ref="A1:J102"/>
   <sheetViews>
@@ -2890,18 +2955,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="34" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H1" s="33"/>
     </row>
@@ -2934,7 +2999,7 @@
       </c>
       <c r="B3" s="3" t="str">
         <f>画面名!F7</f>
-        <v>Z:\Workspaces\JavaWeb_Part3\ssh\src\bean-action.xml</v>
+        <v>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9520\common\WorkIndex.java</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>画面名!$E$4</f>
@@ -2942,31 +3007,31 @@
       </c>
       <c r="D3" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <f>FIND("@",SUBSTITUTE(B3,C3,"@",D3))+1</f>
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="e">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2">
         <f>FIND("@",SUBSTITUTE(B3,C3,"@",D3+1))-E3</f>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
         <f>FIND("@",SUBSTITUTE(B3,C3,"@",LEN(B3)-LEN(SUBSTITUTE(B3,C3,""))),1)</f>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2">
         <f>LEN(B3)-G3</f>
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="e">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="str">
         <f>MID(B3,E3,F3)</f>
-        <v>#VALUE!</v>
+        <v>s_R_9520</v>
       </c>
       <c r="J3" s="5" t="str">
         <f>RIGHT(B3,H3)</f>
-        <v>bean-action.xml</v>
+        <v>WorkIndex.java</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5">
@@ -2975,7 +3040,7 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>画面名!F8</f>
-        <v>Z:\Workspaces\JavaWeb_Part3\ssh\src\bean-base.xml</v>
+        <v>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9520\services\EditExcelWork.java</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>画面名!$E$4</f>
@@ -2983,31 +3048,31 @@
       </c>
       <c r="D4" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E67" si="0">FIND("@",SUBSTITUTE(B4,C4,"@",D4))+1</f>
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="e">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F67" si="1">FIND("@",SUBSTITUTE(B4,C4,"@",D4+1))-E4</f>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G67" si="2">FIND("@",SUBSTITUTE(B4,C4,"@",LEN(B4)-LEN(SUBSTITUTE(B4,C4,""))),1)</f>
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H67" si="3">LEN(B4)-G4</f>
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="e">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="str">
         <f t="shared" ref="I4:I67" si="4">MID(B4,E4,F4)</f>
-        <v>#VALUE!</v>
+        <v>s_R_9520</v>
       </c>
       <c r="J4" s="5" t="str">
         <f t="shared" ref="J4:J67" si="5">RIGHT(B4,H4)</f>
-        <v>bean-base.xml</v>
+        <v>EditExcelWork.java</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5">
@@ -3016,7 +3081,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>画面名!F9</f>
-        <v>Z:\Workspaces\JavaWeb_Part3\ssh\src\bean-service.xml</v>
+        <v>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9530\common\WorkIndex.java</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>画面名!$E$4</f>
@@ -3024,31 +3089,31 @@
       </c>
       <c r="D5" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="e">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="e">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>s_R_9530</v>
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>bean-service.xml</v>
+        <v>WorkIndex.java</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5">
@@ -3057,7 +3122,7 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>画面名!F10</f>
-        <v>Z:\Workspaces\JavaWeb_Part3\ssh\src\cn\itcast\action\EmployeeAction.java</v>
+        <v>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9530\services\EditExcelWork1.java</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>画面名!$E$4</f>
@@ -3065,19 +3130,19 @@
       </c>
       <c r="D6" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="3"/>
@@ -3085,11 +3150,11 @@
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>cn</v>
+        <v>s_R_9530</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>EmployeeAction.java</v>
+        <v>EditExcelWork1.java</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5">
@@ -3098,7 +3163,7 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>画面名!F11</f>
-        <v>Z:\Workspaces\JavaWeb_Part3\ssh\src\cn\itcast\dao\test.java</v>
+        <v>Z:\D\gitRepo\workspro_uni\Workspro_EN_Server\src\components\s_R_9530\services\EditExcelWork2.java</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>画面名!$E$4</f>
@@ -3106,40 +3171,40 @@
       </c>
       <c r="D7" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>cn</v>
+        <v>s_R_9530</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>test.java</v>
+        <v>EditExcelWork2.java</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="3">
         <f>画面名!F12</f>
-        <v>Z:\Workspaces\JavaWeb_Part3\ssh\WebRoot\WEB-INF\web.xml</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>画面名!$E$4</f>
@@ -3147,31 +3212,31 @@
       </c>
       <c r="D8" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F8" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="H8" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>WEB-INF</v>
-      </c>
-      <c r="J8" s="5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>web.xml</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5">
@@ -3188,7 +3253,7 @@
       </c>
       <c r="D9" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3229,7 +3294,7 @@
       </c>
       <c r="D10" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3270,7 +3335,7 @@
       </c>
       <c r="D11" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3311,7 +3376,7 @@
       </c>
       <c r="D12" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3352,7 +3417,7 @@
       </c>
       <c r="D13" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3393,7 +3458,7 @@
       </c>
       <c r="D14" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3434,7 +3499,7 @@
       </c>
       <c r="D15" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3475,7 +3540,7 @@
       </c>
       <c r="D16" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3516,7 +3581,7 @@
       </c>
       <c r="D17" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3557,7 +3622,7 @@
       </c>
       <c r="D18" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3598,7 +3663,7 @@
       </c>
       <c r="D19" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3639,7 +3704,7 @@
       </c>
       <c r="D20" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3680,7 +3745,7 @@
       </c>
       <c r="D21" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3721,7 +3786,7 @@
       </c>
       <c r="D22" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3762,7 +3827,7 @@
       </c>
       <c r="D23" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3803,7 +3868,7 @@
       </c>
       <c r="D24" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3844,7 +3909,7 @@
       </c>
       <c r="D25" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3885,7 +3950,7 @@
       </c>
       <c r="D26" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3926,7 +3991,7 @@
       </c>
       <c r="D27" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -3967,7 +4032,7 @@
       </c>
       <c r="D28" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4008,7 +4073,7 @@
       </c>
       <c r="D29" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4049,7 +4114,7 @@
       </c>
       <c r="D30" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4090,7 +4155,7 @@
       </c>
       <c r="D31" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4131,7 +4196,7 @@
       </c>
       <c r="D32" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4172,7 +4237,7 @@
       </c>
       <c r="D33" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4213,7 +4278,7 @@
       </c>
       <c r="D34" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4254,7 +4319,7 @@
       </c>
       <c r="D35" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4295,7 +4360,7 @@
       </c>
       <c r="D36" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4336,7 +4401,7 @@
       </c>
       <c r="D37" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4377,7 +4442,7 @@
       </c>
       <c r="D38" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4418,7 +4483,7 @@
       </c>
       <c r="D39" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4459,7 +4524,7 @@
       </c>
       <c r="D40" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4500,7 +4565,7 @@
       </c>
       <c r="D41" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4541,7 +4606,7 @@
       </c>
       <c r="D42" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4582,7 +4647,7 @@
       </c>
       <c r="D43" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4623,7 +4688,7 @@
       </c>
       <c r="D44" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4664,7 +4729,7 @@
       </c>
       <c r="D45" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4705,7 +4770,7 @@
       </c>
       <c r="D46" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4746,7 +4811,7 @@
       </c>
       <c r="D47" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4787,7 +4852,7 @@
       </c>
       <c r="D48" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4828,7 +4893,7 @@
       </c>
       <c r="D49" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4869,7 +4934,7 @@
       </c>
       <c r="D50" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4910,7 +4975,7 @@
       </c>
       <c r="D51" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4951,7 +5016,7 @@
       </c>
       <c r="D52" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2" t="e">
         <f t="shared" si="0"/>
@@ -4992,7 +5057,7 @@
       </c>
       <c r="D53" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5033,7 +5098,7 @@
       </c>
       <c r="D54" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5074,7 +5139,7 @@
       </c>
       <c r="D55" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5115,7 +5180,7 @@
       </c>
       <c r="D56" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5156,7 +5221,7 @@
       </c>
       <c r="D57" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5197,7 +5262,7 @@
       </c>
       <c r="D58" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5238,7 +5303,7 @@
       </c>
       <c r="D59" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E59" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5279,7 +5344,7 @@
       </c>
       <c r="D60" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5320,7 +5385,7 @@
       </c>
       <c r="D61" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5361,7 +5426,7 @@
       </c>
       <c r="D62" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5402,7 +5467,7 @@
       </c>
       <c r="D63" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5443,7 +5508,7 @@
       </c>
       <c r="D64" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5484,7 +5549,7 @@
       </c>
       <c r="D65" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5525,7 +5590,7 @@
       </c>
       <c r="D66" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5566,7 +5631,7 @@
       </c>
       <c r="D67" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5607,7 +5672,7 @@
       </c>
       <c r="D68" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2" t="e">
         <f t="shared" ref="E68:E100" si="6">FIND("@",SUBSTITUTE(B68,C68,"@",D68))+1</f>
@@ -5648,7 +5713,7 @@
       </c>
       <c r="D69" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5689,7 +5754,7 @@
       </c>
       <c r="D70" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5730,7 +5795,7 @@
       </c>
       <c r="D71" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5771,7 +5836,7 @@
       </c>
       <c r="D72" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5812,7 +5877,7 @@
       </c>
       <c r="D73" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5853,7 +5918,7 @@
       </c>
       <c r="D74" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5894,7 +5959,7 @@
       </c>
       <c r="D75" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5935,7 +6000,7 @@
       </c>
       <c r="D76" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E76" s="2" t="e">
         <f t="shared" si="6"/>
@@ -5976,7 +6041,7 @@
       </c>
       <c r="D77" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E77" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6017,7 +6082,7 @@
       </c>
       <c r="D78" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6058,7 +6123,7 @@
       </c>
       <c r="D79" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6099,7 +6164,7 @@
       </c>
       <c r="D80" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E80" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6140,7 +6205,7 @@
       </c>
       <c r="D81" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E81" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6181,7 +6246,7 @@
       </c>
       <c r="D82" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E82" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6222,7 +6287,7 @@
       </c>
       <c r="D83" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E83" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6263,7 +6328,7 @@
       </c>
       <c r="D84" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E84" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6304,7 +6369,7 @@
       </c>
       <c r="D85" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E85" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6345,7 +6410,7 @@
       </c>
       <c r="D86" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E86" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6386,7 +6451,7 @@
       </c>
       <c r="D87" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E87" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6427,7 +6492,7 @@
       </c>
       <c r="D88" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6468,7 +6533,7 @@
       </c>
       <c r="D89" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E89" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6509,7 +6574,7 @@
       </c>
       <c r="D90" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6550,7 +6615,7 @@
       </c>
       <c r="D91" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E91" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6591,7 +6656,7 @@
       </c>
       <c r="D92" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E92" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6632,7 +6697,7 @@
       </c>
       <c r="D93" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6673,7 +6738,7 @@
       </c>
       <c r="D94" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E94" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6714,7 +6779,7 @@
       </c>
       <c r="D95" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E95" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6755,7 +6820,7 @@
       </c>
       <c r="D96" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E96" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6796,7 +6861,7 @@
       </c>
       <c r="D97" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E97" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6837,7 +6902,7 @@
       </c>
       <c r="D98" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E98" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6878,7 +6943,7 @@
       </c>
       <c r="D99" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E99" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6919,7 +6984,7 @@
       </c>
       <c r="D100" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E100" s="2" t="e">
         <f t="shared" si="6"/>
@@ -6960,7 +7025,7 @@
       </c>
       <c r="D101" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E101" s="2" t="e">
         <f t="shared" ref="E101:E102" si="12">FIND("@",SUBSTITUTE(B101,C101,"@",D101))+1</f>
@@ -7001,7 +7066,7 @@
       </c>
       <c r="D102" s="3">
         <f>画面名!$E$3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E102" s="2" t="e">
         <f t="shared" si="12"/>

--- a/sikoto/B票のアシスタント.xlsx
+++ b/sikoto/B票のアシスタント.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TestUser\Desktop\Excel_Lib\sikoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF0D07C-3733-422A-B412-D5A74BC35774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47E4DF-6C57-4A4F-B369-5FD5A493B951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="885" windowWidth="19455" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -583,23 +583,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1">
@@ -607,6 +600,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +686,56 @@
         <a:xfrm>
           <a:off x="685801" y="238126"/>
           <a:ext cx="8518432" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>79887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2211B619-A8F2-40A2-B304-1D6D510CAE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6905625"/>
+          <a:ext cx="7772400" cy="6033012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,7 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D353F81-11F6-44C0-8673-E9A24798C11D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -990,193 +1042,193 @@
   <sheetData>
     <row r="1" spans="2:19"/>
     <row r="2" spans="2:19">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="31" t="str">
+      <c r="B9" s="28" t="str">
         <f>IFERROR(D17, "比較することができない")</f>
         <v>10.216.243.120:8080/gitbucket/git/UNION/workspro_union/compare/develop...fix/BJS0299</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="21"/>
@@ -1197,141 +1249,141 @@
       <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="2:19" hidden="1">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="26" t="str">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="str">
         <f>IFERROR(LEFT(B6,FIND("/commit",B6)),"")</f>
         <v/>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="2:19" hidden="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26" t="str">
+      <c r="C14" s="26"/>
+      <c r="D14" s="25" t="str">
         <f>IFERROR(RIGHT(B3,LEN(B3)-FIND("/", B3, FIND("commit",B3))),B3)</f>
         <v>fix/BJS0299</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="2:19" hidden="1">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26" t="str">
+      <c r="C15" s="26"/>
+      <c r="D15" s="25" t="str">
         <f>IFERROR(RIGHT(B6,LEN(B6)-FIND("/", B6, FIND("commit",B6))),B6)</f>
         <v>develop</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="2:19" hidden="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="26" t="str">
+      <c r="C16" s="26"/>
+      <c r="D16" s="25" t="str">
         <f>_xlfn.CONCAT(D12, "/compare/", D15, "...",D14)</f>
         <v>10.216.243.120:8080/gitbucket/git/UNION/workspro_union/compare/develop...fix/BJS0299</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="2:17" hidden="1">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="26" t="str" cm="1">
+      <c r="C17" s="26"/>
+      <c r="D17" s="25" t="str" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(D13=D12,D16,D13="",D16)</f>
         <v>10.216.243.120:8080/gitbucket/git/UNION/workspro_union/compare/develop...fix/BJS0299</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="19" spans="2:17"/>
     <row r="21" spans="2:17" hidden="1">
@@ -1339,13 +1391,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B3:Q4"/>
-    <mergeCell ref="B6:Q7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B9:Q10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D12:Q12"/>
@@ -1357,6 +1402,13 @@
     <mergeCell ref="D13:Q13"/>
     <mergeCell ref="D14:Q14"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B3:Q4"/>
+    <mergeCell ref="B6:Q7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B9:Q10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,7 +1421,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1"/>
